--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdataebay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EFA5ED-0666-4AA0-9D2A-C7A25C8D611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA06FF-EF32-48DD-9244-D5C3B860AA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>
@@ -36,14 +36,13 @@
     <t>infinix</t>
   </si>
   <si>
-    <t>Jobs in IT &amp; Technical Operations: Ebay Careers</t>
+    <t>Jobs in IT &amp; Technical Operations: eBay Careers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,33 +354,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.90625"/>
-    <col min="2" max="2" customWidth="true" width="8.26953125"/>
-    <col min="3" max="3" customWidth="true" width="63.7265625"/>
-    <col min="4" max="4" customWidth="true" width="6.0"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="40.26953125" customWidth="1"/>
+    <col min="3" max="3" width="63.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C5" t="s" s="0">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdataebay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA06FF-EF32-48DD-9244-D5C3B860AA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAB3A2E-FE35-4469-9327-94ED0465A849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdataebay\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>
@@ -43,6 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,25 +363,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="40.26953125" customWidth="1"/>
-    <col min="3" max="3" width="63.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.90625"/>
+    <col min="2" max="2" customWidth="true" width="40.26953125"/>
+    <col min="3" max="3" customWidth="true" width="63.7265625"/>
+    <col min="4" max="4" customWidth="true" width="6.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
     </row>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdataebay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAB3A2E-FE35-4469-9327-94ED0465A849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4B4DD7-221D-461B-AF69-F99AFE9EFDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCasesDataEbay" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>
@@ -36,14 +36,15 @@
     <t>infinix</t>
   </si>
   <si>
-    <t>Jobs in IT &amp; Technical Operations: eBay Careers</t>
+    <t>"Jobs in IT &amp; Technical Operations: eBay Careers",
+"Search for Jobs: eBay Careers",
+"eBay Jobs: Careers at eBay"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,8 +74,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,30 +362,30 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.90625"/>
-    <col min="2" max="2" customWidth="true" width="40.26953125"/>
-    <col min="3" max="3" customWidth="true" width="63.7265625"/>
-    <col min="4" max="4" customWidth="true" width="6.0"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" customWidth="1"/>
+    <col min="3" max="3" width="63.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s" s="0">
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdataebay\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>
@@ -45,6 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,20 +368,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="43.81640625" customWidth="1"/>
-    <col min="3" max="3" width="63.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.90625"/>
+    <col min="2" max="2" customWidth="true" width="43.81640625"/>
+    <col min="3" max="3" customWidth="true" width="63.7265625"/>
+    <col min="4" max="4" customWidth="true" width="6.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdataebay/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>
